--- a/Client/Table/Network/TableNetworkRequest.xlsx
+++ b/Client/Table/Network/TableNetworkRequest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15945"/>
+    <workbookView windowWidth="30615" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="TableNetworkRequest" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="235">
   <si>
     <t>[2,2]</t>
   </si>
@@ -669,6 +669,12 @@
   </si>
   <si>
     <t>/play/gamecore/accept</t>
+  </si>
+  <si>
+    <t>云控配置</t>
+  </si>
+  <si>
+    <t>/play/app/pc</t>
   </si>
   <si>
     <t>测试版本</t>
@@ -721,10 +727,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -769,36 +775,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,23 +789,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,8 +825,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -874,10 +858,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,13 +889,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,19 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,31 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,19 +971,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,61 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,13 +1031,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,13 +1091,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,8 +1165,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,32 +1213,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,10 +1237,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,16 +1249,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1270,116 +1270,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1422,47 +1422,41 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1797,10 +1791,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1809,9 +1803,9 @@
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="4" customWidth="1"/>
     <col min="4" max="5" width="8.625" style="4"/>
-    <col min="6" max="6" width="53.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="53.125" style="15" customWidth="1"/>
     <col min="7" max="8" width="8.625" style="4"/>
-    <col min="9" max="9" width="8.625" style="16"/>
+    <col min="9" max="9" width="8.625" style="15"/>
     <col min="10" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
@@ -1831,7 +1825,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1840,7 +1834,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1860,7 +1854,7 @@
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1869,7 +1863,7 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1889,7 +1883,7 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1898,12 +1892,12 @@
       <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" s="12" customFormat="1" spans="1:9">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12">
@@ -1918,130 +1912,130 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>20001</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="21">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="D5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="20">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>20002</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="21">
-        <v>2</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>20003</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="21">
-        <v>2</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>20004</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="21">
-        <v>2</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>20005</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="21">
-        <v>2</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="D9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="20">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>30010</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="21">
-        <v>2</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="D10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>30011</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="21">
-        <v>2</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="4">
@@ -2050,312 +2044,296 @@
       <c r="H11" s="4">
         <v>2000004</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>30012</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="21">
-        <v>2</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>30020</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="21">
-        <v>2</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="D13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>30021</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="21">
-        <v>2</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20">
+        <v>2</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>30022</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="21">
-        <v>2</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="D15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" s="13" customFormat="1" spans="1:9">
-      <c r="A16" s="24"/>
-      <c r="B16" s="14">
+      <c r="A16" s="23"/>
+      <c r="B16" s="13">
         <v>30030</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2</v>
-      </c>
-      <c r="F16" s="25" t="s">
+      <c r="D16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" s="13" customFormat="1" spans="1:9">
-      <c r="A17" s="24"/>
-      <c r="B17" s="14">
+      <c r="A17" s="23"/>
+      <c r="B17" s="13">
         <v>30031</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="14">
-        <v>2</v>
-      </c>
-      <c r="F17" s="25" t="s">
+      <c r="D17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" s="13" customFormat="1" spans="1:9">
-      <c r="A18" s="24"/>
-      <c r="B18" s="14">
+      <c r="A18" s="23"/>
+      <c r="B18" s="13">
         <v>30032</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="14">
-        <v>2</v>
-      </c>
-      <c r="F18" s="25" t="s">
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" s="13" customFormat="1" spans="1:9">
-      <c r="A19" s="24"/>
-      <c r="B19" s="14">
+      <c r="A19" s="23"/>
+      <c r="B19" s="13">
         <v>30033</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="14">
-        <v>2</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>30034</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="21">
-        <v>2</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="D20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>30035</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="21">
-        <v>2</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="D21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="20">
+        <v>2</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>30036</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="21">
-        <v>2</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="D22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="20">
+        <v>2</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" s="13" customFormat="1" spans="1:9">
-      <c r="A23" s="24"/>
-      <c r="B23" s="14">
+      <c r="A23" s="23"/>
+      <c r="B23" s="13">
         <v>30040</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="14">
-        <v>2</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="D23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="27"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" s="13" customFormat="1" spans="1:9">
-      <c r="A24" s="24"/>
-      <c r="B24" s="14">
+      <c r="A24" s="23"/>
+      <c r="B24" s="13">
         <v>30041</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="14">
-        <v>2</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="D24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="27"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" s="13" customFormat="1" spans="1:9">
-      <c r="A25" s="24"/>
-      <c r="B25" s="14">
+      <c r="A25" s="23"/>
+      <c r="B25" s="13">
         <v>30050</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="14">
-        <v>2</v>
-      </c>
-      <c r="F25" s="25" t="s">
+      <c r="D25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="27"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" s="13" customFormat="1" spans="1:9">
-      <c r="A26" s="24"/>
-      <c r="B26" s="14">
+      <c r="A26" s="23"/>
+      <c r="B26" s="13">
         <v>30060</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="14">
-        <v>2</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="D26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="27"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" s="13" customFormat="1" spans="1:9">
-      <c r="A27" s="24"/>
-      <c r="B27" s="14">
+      <c r="A27" s="23"/>
+      <c r="B27" s="13">
         <v>30061</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="14">
-        <v>2</v>
-      </c>
-      <c r="F27" s="25" t="s">
+      <c r="D27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="13">
+        <v>2</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="13">
@@ -2364,109 +2342,101 @@
       <c r="H27" s="13">
         <v>2000006</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" s="13" customFormat="1" spans="1:9">
-      <c r="A28" s="24"/>
-      <c r="B28" s="14">
+      <c r="A28" s="23"/>
+      <c r="B28" s="13">
         <v>30062</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="14">
-        <v>2</v>
-      </c>
-      <c r="F28" s="25" t="s">
+      <c r="D28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2</v>
+      </c>
+      <c r="F28" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="27"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" s="13" customFormat="1" spans="1:9">
-      <c r="A29" s="24"/>
-      <c r="B29" s="14">
+      <c r="A29" s="23"/>
+      <c r="B29" s="13">
         <v>30070</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="14">
-        <v>2</v>
-      </c>
-      <c r="F29" s="25" t="s">
+      <c r="D29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="13">
+        <v>2</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="27"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" s="13" customFormat="1" spans="1:9">
-      <c r="A30" s="24"/>
-      <c r="B30" s="14">
+      <c r="A30" s="23"/>
+      <c r="B30" s="13">
         <v>30071</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="14">
-        <v>2</v>
-      </c>
-      <c r="F30" s="25" t="s">
+      <c r="D30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="13">
+        <v>2</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="27"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" s="13" customFormat="1" spans="1:9">
-      <c r="A31" s="24"/>
-      <c r="B31" s="14">
+      <c r="A31" s="23"/>
+      <c r="B31" s="13">
         <v>30080</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="14">
-        <v>2</v>
-      </c>
-      <c r="F31" s="25" t="s">
+      <c r="D31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="13">
+        <v>2</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="27"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" s="13" customFormat="1" spans="1:9">
-      <c r="A32" s="24"/>
-      <c r="B32" s="14">
+      <c r="A32" s="23"/>
+      <c r="B32" s="13">
         <v>30081</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="14">
-        <v>2</v>
-      </c>
-      <c r="F32" s="25" t="s">
+      <c r="D32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="13">
+        <v>2</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>83</v>
       </c>
       <c r="G32" s="13">
@@ -2475,180 +2445,170 @@
       <c r="H32" s="13">
         <v>2000005</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" spans="1:9">
-      <c r="A33" s="24"/>
-      <c r="B33" s="14">
+      <c r="A33" s="23"/>
+      <c r="B33" s="13">
         <v>30090</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="14">
-        <v>2</v>
-      </c>
-      <c r="F33" s="25" t="s">
+      <c r="D33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="27"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" s="13" customFormat="1" spans="1:9">
-      <c r="A34" s="24"/>
-      <c r="B34" s="14">
+      <c r="A34" s="23"/>
+      <c r="B34" s="13">
         <v>30091</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="14">
-        <v>2</v>
-      </c>
-      <c r="F34" s="25" t="s">
+      <c r="D34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="13">
+        <v>2</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="27"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" s="13" customFormat="1" spans="1:9">
-      <c r="A35" s="24"/>
-      <c r="B35" s="14">
+      <c r="A35" s="23"/>
+      <c r="B35" s="13">
         <v>30100</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="14">
-        <v>2</v>
-      </c>
-      <c r="F35" s="25" t="s">
+      <c r="D35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="27"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" s="13" customFormat="1" spans="1:9">
-      <c r="A36" s="24"/>
-      <c r="B36" s="14">
+      <c r="A36" s="23"/>
+      <c r="B36" s="13">
         <v>30101</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="14">
-        <v>2</v>
-      </c>
-      <c r="F36" s="25" t="s">
+      <c r="D36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="27"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" s="13" customFormat="1" spans="1:9">
-      <c r="A37" s="24"/>
-      <c r="B37" s="14">
+      <c r="A37" s="23"/>
+      <c r="B37" s="13">
         <v>30102</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="14">
-        <v>2</v>
-      </c>
-      <c r="F37" s="25" t="s">
+      <c r="D37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="27"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>30103</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="21">
-        <v>2</v>
-      </c>
-      <c r="F38" s="23" t="s">
+      <c r="D38" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="20">
+        <v>2</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>30104</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="21">
-        <v>2</v>
-      </c>
-      <c r="F39" s="23" t="s">
+      <c r="D39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="20">
+        <v>2</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>30110</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="21">
-        <v>2</v>
-      </c>
-      <c r="F40" s="23" t="s">
+      <c r="D40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="20">
+        <v>2</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>30111</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="21">
-        <v>2</v>
-      </c>
-      <c r="F41" s="23" t="s">
+      <c r="D41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="20">
+        <v>2</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>102</v>
       </c>
       <c r="G41" s="4">
@@ -2657,162 +2617,158 @@
       <c r="H41" s="4">
         <v>2000001</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:9">
-      <c r="A42" s="24"/>
-      <c r="B42" s="14">
+      <c r="A42" s="23"/>
+      <c r="B42" s="13">
         <v>30120</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="14">
-        <v>2</v>
-      </c>
-      <c r="F42" s="25" t="s">
+      <c r="D42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="13">
+        <v>2</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="27"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" s="13" customFormat="1" spans="1:9">
-      <c r="A43" s="24"/>
-      <c r="B43" s="14">
+      <c r="A43" s="23"/>
+      <c r="B43" s="13">
         <v>30121</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="14">
-        <v>2</v>
-      </c>
-      <c r="F43" s="25" t="s">
+      <c r="D43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2</v>
+      </c>
+      <c r="F43" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="27"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>30130</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="21">
-        <v>2</v>
-      </c>
-      <c r="F44" s="23" t="s">
+      <c r="D44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="20">
+        <v>2</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="21">
+      <c r="B45" s="20">
         <v>30140</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="21">
-        <v>2</v>
-      </c>
-      <c r="F45" s="23" t="s">
+      <c r="D45" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="20">
+        <v>2</v>
+      </c>
+      <c r="F45" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>30141</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="21">
-        <v>2</v>
-      </c>
-      <c r="F46" s="23" t="s">
+      <c r="D46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="20">
+        <v>2</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" s="14" customFormat="1" spans="1:9">
-      <c r="A47" s="24"/>
-      <c r="B47" s="14">
+    <row r="47" s="13" customFormat="1" spans="1:9">
+      <c r="A47" s="23"/>
+      <c r="B47" s="13">
         <v>40100</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="14">
-        <v>2</v>
-      </c>
-      <c r="F47" s="25" t="s">
+      <c r="D47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" s="14" customFormat="1" spans="1:9">
-      <c r="A48" s="24"/>
-      <c r="B48" s="14">
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" s="13" customFormat="1" spans="1:9">
+      <c r="A48" s="23"/>
+      <c r="B48" s="13">
         <v>40101</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="14">
-        <v>2</v>
-      </c>
-      <c r="F48" s="25" t="s">
+      <c r="D48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I48" s="25"/>
-    </row>
-    <row r="49" s="14" customFormat="1" spans="1:9">
-      <c r="A49" s="24"/>
-      <c r="B49" s="14">
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" s="13" customFormat="1" spans="1:9">
+      <c r="A49" s="23"/>
+      <c r="B49" s="13">
         <v>40102</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="14">
-        <v>2</v>
-      </c>
-      <c r="F49" s="25" t="s">
+      <c r="D49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2</v>
+      </c>
+      <c r="F49" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" s="15" customFormat="1" spans="1:9">
-      <c r="A50" s="26"/>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" s="14" customFormat="1" spans="1:9">
+      <c r="A50" s="25"/>
       <c r="B50" s="4">
         <v>40110</v>
       </c>
@@ -2825,13 +2781,13 @@
       <c r="E50" s="4">
         <v>2</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I50" s="29"/>
-    </row>
-    <row r="51" s="15" customFormat="1" spans="1:9">
-      <c r="A51" s="26"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" s="14" customFormat="1" spans="1:9">
+      <c r="A51" s="25"/>
       <c r="B51" s="4">
         <v>40111</v>
       </c>
@@ -2844,13 +2800,13 @@
       <c r="E51" s="4">
         <v>2</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I51" s="29"/>
-    </row>
-    <row r="52" s="15" customFormat="1" spans="1:9">
-      <c r="A52" s="26"/>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" s="14" customFormat="1" spans="1:9">
+      <c r="A52" s="25"/>
       <c r="B52" s="4">
         <v>40112</v>
       </c>
@@ -2863,13 +2819,13 @@
       <c r="E52" s="4">
         <v>2</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I52" s="29"/>
-    </row>
-    <row r="53" s="15" customFormat="1" spans="1:9">
-      <c r="A53" s="26"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" s="14" customFormat="1" spans="1:9">
+      <c r="A53" s="25"/>
       <c r="B53" s="4">
         <v>40113</v>
       </c>
@@ -2882,13 +2838,13 @@
       <c r="E53" s="4">
         <v>2</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="I53" s="29"/>
+      <c r="I53" s="27"/>
     </row>
     <row r="54" s="13" customFormat="1" spans="1:9">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="13">
         <v>40200</v>
       </c>
@@ -2901,15 +2857,13 @@
       <c r="E54" s="13">
         <v>2</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="27"/>
+      <c r="I54" s="24"/>
     </row>
     <row r="55" s="13" customFormat="1" spans="1:9">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="13">
         <v>40201</v>
       </c>
@@ -2922,15 +2876,13 @@
       <c r="E55" s="13">
         <v>2</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="27"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:9">
-      <c r="A56" s="24"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="13">
         <v>50100</v>
       </c>
@@ -2943,15 +2895,13 @@
       <c r="E56" s="13">
         <v>2</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F56" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="27"/>
+      <c r="I56" s="24"/>
     </row>
     <row r="57" s="13" customFormat="1" spans="1:9">
-      <c r="A57" s="24"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="13">
         <v>50101</v>
       </c>
@@ -2964,15 +2914,13 @@
       <c r="E57" s="13">
         <v>2</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="27"/>
+      <c r="I57" s="24"/>
     </row>
     <row r="58" s="13" customFormat="1" spans="1:9">
-      <c r="A58" s="24"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="13">
         <v>50102</v>
       </c>
@@ -2985,15 +2933,13 @@
       <c r="E58" s="13">
         <v>2</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="27"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="59" s="13" customFormat="1" spans="1:9">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="13">
         <v>60100</v>
       </c>
@@ -3006,15 +2952,13 @@
       <c r="E59" s="13">
         <v>2</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="27"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="60" s="13" customFormat="1" spans="1:9">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="13">
         <v>60101</v>
       </c>
@@ -3027,15 +2971,13 @@
       <c r="E60" s="13">
         <v>2</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="27"/>
+      <c r="I60" s="24"/>
     </row>
     <row r="61" s="13" customFormat="1" spans="1:9">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="13">
         <v>60102</v>
       </c>
@@ -3048,15 +2990,13 @@
       <c r="E61" s="13">
         <v>2</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="27"/>
+      <c r="I61" s="24"/>
     </row>
     <row r="62" s="13" customFormat="1" spans="1:9">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="13">
         <v>60103</v>
       </c>
@@ -3069,12 +3009,10 @@
       <c r="E62" s="13">
         <v>2</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="27"/>
+      <c r="I62" s="24"/>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="4">
@@ -3089,7 +3027,7 @@
       <c r="E63" s="4">
         <v>2</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="15" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3106,7 +3044,7 @@
       <c r="E64" s="4">
         <v>2</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="15" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3123,12 +3061,12 @@
       <c r="E65" s="4">
         <v>2</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="66" s="13" customFormat="1" spans="1:9">
-      <c r="A66" s="24"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="13">
         <v>70201</v>
       </c>
@@ -3141,12 +3079,10 @@
       <c r="E66" s="13">
         <v>2</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="27"/>
+      <c r="I66" s="24"/>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="4">
@@ -3161,7 +3097,7 @@
       <c r="E67" s="4">
         <v>2</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="15" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3178,12 +3114,12 @@
       <c r="E68" s="4">
         <v>2</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="69" s="13" customFormat="1" spans="1:9">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="13">
         <v>80102</v>
       </c>
@@ -3196,15 +3132,13 @@
       <c r="E69" s="13">
         <v>2</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="27"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" s="13" customFormat="1" spans="1:9">
-      <c r="A70" s="24"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="13">
         <v>80103</v>
       </c>
@@ -3217,15 +3151,13 @@
       <c r="E70" s="13">
         <v>2</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F70" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="27"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" s="13" customFormat="1" spans="1:9">
-      <c r="A71" s="24"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="13">
         <v>80104</v>
       </c>
@@ -3238,15 +3170,13 @@
       <c r="E71" s="13">
         <v>2</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="27"/>
+      <c r="I71" s="24"/>
     </row>
     <row r="72" s="13" customFormat="1" spans="1:9">
-      <c r="A72" s="24"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="13">
         <v>80105</v>
       </c>
@@ -3259,15 +3189,13 @@
       <c r="E72" s="13">
         <v>2</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="27"/>
+      <c r="I72" s="24"/>
     </row>
     <row r="73" s="13" customFormat="1" spans="1:9">
-      <c r="A73" s="24"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="13">
         <v>80106</v>
       </c>
@@ -3280,15 +3208,13 @@
       <c r="E73" s="13">
         <v>2</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="27"/>
+      <c r="I73" s="24"/>
     </row>
     <row r="74" s="13" customFormat="1" spans="1:9">
-      <c r="A74" s="24"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="13">
         <v>80107</v>
       </c>
@@ -3301,15 +3227,13 @@
       <c r="E74" s="13">
         <v>2</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="27"/>
+      <c r="I74" s="24"/>
     </row>
     <row r="75" s="13" customFormat="1" spans="1:9">
-      <c r="A75" s="24"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="13">
         <v>80108</v>
       </c>
@@ -3322,15 +3246,13 @@
       <c r="E75" s="13">
         <v>2</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="27"/>
+      <c r="I75" s="24"/>
     </row>
     <row r="76" s="13" customFormat="1" spans="1:9">
-      <c r="A76" s="24"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="13">
         <v>80201</v>
       </c>
@@ -3343,15 +3265,13 @@
       <c r="E76" s="13">
         <v>2</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="27"/>
+      <c r="I76" s="24"/>
     </row>
     <row r="77" s="13" customFormat="1" spans="1:9">
-      <c r="A77" s="24"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="13">
         <v>80202</v>
       </c>
@@ -3364,15 +3284,13 @@
       <c r="E77" s="13">
         <v>2</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="27"/>
+      <c r="I77" s="24"/>
     </row>
     <row r="78" s="13" customFormat="1" spans="1:9">
-      <c r="A78" s="24"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="13">
         <v>80301</v>
       </c>
@@ -3385,15 +3303,13 @@
       <c r="E78" s="13">
         <v>2</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="27"/>
+      <c r="I78" s="24"/>
     </row>
     <row r="79" s="13" customFormat="1" spans="1:9">
-      <c r="A79" s="24"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="13">
         <v>80302</v>
       </c>
@@ -3406,15 +3322,13 @@
       <c r="E79" s="13">
         <v>2</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="27"/>
+      <c r="I79" s="24"/>
     </row>
     <row r="80" s="13" customFormat="1" spans="1:9">
-      <c r="A80" s="24"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="13">
         <v>80303</v>
       </c>
@@ -3427,15 +3341,13 @@
       <c r="E80" s="13">
         <v>2</v>
       </c>
-      <c r="F80" s="27" t="s">
+      <c r="F80" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="27"/>
+      <c r="I80" s="24"/>
     </row>
     <row r="81" s="13" customFormat="1" spans="1:9">
-      <c r="A81" s="24"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="13">
         <v>80401</v>
       </c>
@@ -3448,15 +3360,13 @@
       <c r="E81" s="13">
         <v>2</v>
       </c>
-      <c r="F81" s="27" t="s">
+      <c r="F81" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="27"/>
+      <c r="I81" s="24"/>
     </row>
     <row r="82" s="13" customFormat="1" spans="1:9">
-      <c r="A82" s="24"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="13">
         <v>80402</v>
       </c>
@@ -3469,12 +3379,10 @@
       <c r="E82" s="13">
         <v>2</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="F82" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="27"/>
+      <c r="I82" s="24"/>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" s="4">
@@ -3498,7 +3406,7 @@
       <c r="H83" s="4">
         <v>2000003</v>
       </c>
-      <c r="I83" s="16" t="s">
+      <c r="I83" s="15" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3524,7 +3432,7 @@
       <c r="H84" s="4">
         <v>2000002</v>
       </c>
-      <c r="I84" s="16" t="s">
+      <c r="I84" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3592,12 +3500,12 @@
       <c r="E88" s="4">
         <v>2</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F88" s="15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="89" s="13" customFormat="1" spans="1:9">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="13">
         <v>80601</v>
       </c>
@@ -3610,15 +3518,13 @@
       <c r="E89" s="13">
         <v>2</v>
       </c>
-      <c r="F89" s="27" t="s">
+      <c r="F89" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="27"/>
+      <c r="I89" s="24"/>
     </row>
     <row r="90" s="13" customFormat="1" spans="1:9">
-      <c r="A90" s="24"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="13">
         <v>80602</v>
       </c>
@@ -3631,15 +3537,13 @@
       <c r="E90" s="13">
         <v>2</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F90" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="27"/>
+      <c r="I90" s="24"/>
     </row>
     <row r="91" s="13" customFormat="1" spans="1:9">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="13">
         <v>80603</v>
       </c>
@@ -3652,15 +3556,13 @@
       <c r="E91" s="13">
         <v>2</v>
       </c>
-      <c r="F91" s="27" t="s">
+      <c r="F91" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="27"/>
+      <c r="I91" s="24"/>
     </row>
     <row r="92" s="13" customFormat="1" spans="1:9">
-      <c r="A92" s="24"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="13">
         <v>80604</v>
       </c>
@@ -3673,15 +3575,13 @@
       <c r="E92" s="13">
         <v>2</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="27"/>
+      <c r="I92" s="24"/>
     </row>
     <row r="93" s="13" customFormat="1" spans="1:9">
-      <c r="A93" s="24"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="13">
         <v>80605</v>
       </c>
@@ -3694,15 +3594,13 @@
       <c r="E93" s="13">
         <v>2</v>
       </c>
-      <c r="F93" s="27" t="s">
+      <c r="F93" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="27"/>
+      <c r="I93" s="24"/>
     </row>
     <row r="94" s="13" customFormat="1" spans="1:9">
-      <c r="A94" s="24"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="13">
         <v>80606</v>
       </c>
@@ -3715,12 +3613,10 @@
       <c r="E94" s="13">
         <v>2</v>
       </c>
-      <c r="F94" s="27" t="s">
+      <c r="F94" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="27"/>
+      <c r="I94" s="24"/>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="4">
@@ -3735,7 +3631,7 @@
       <c r="E95" s="4">
         <v>2</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="F95" s="15" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3752,7 +3648,7 @@
       <c r="E96" s="4">
         <v>2</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="15" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3769,7 +3665,7 @@
       <c r="E97" s="4">
         <v>2</v>
       </c>
-      <c r="F97" s="16" t="s">
+      <c r="F97" s="15" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3786,8 +3682,25 @@
       <c r="E98" s="4">
         <v>2</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="F98" s="15" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="4">
+        <v>90101</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3823,16 +3736,16 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3843,16 +3756,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
@@ -3877,42 +3790,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>228</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/Network/TableNetworkRequest.xlsx
+++ b/Client/Table/Network/TableNetworkRequest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="15480"/>
+    <workbookView windowHeight="18540"/>
   </bookViews>
   <sheets>
     <sheet name="TableNetworkRequest" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
   <si>
     <t>[2,2]</t>
   </si>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <t>/play/app/pc</t>
+  </si>
+  <si>
+    <t>提现增幅配置</t>
+  </si>
+  <si>
+    <t>/play/growth/config</t>
   </si>
   <si>
     <t>测试版本</t>
@@ -1791,10 +1797,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="B100" sqref="B100:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -3701,6 +3707,23 @@
       </c>
       <c r="F99" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="4">
+        <v>90301</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3736,16 +3759,16 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3756,16 +3779,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
@@ -3790,42 +3813,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>230</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/Network/TableNetworkRequest.xlsx
+++ b/Client/Table/Network/TableNetworkRequest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="15480"/>
+    <workbookView windowHeight="18540"/>
   </bookViews>
   <sheets>
     <sheet name="TableNetworkRequest" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
   <si>
     <t>[2,2]</t>
   </si>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <t>/play/app/pc</t>
+  </si>
+  <si>
+    <t>提现增幅配置</t>
+  </si>
+  <si>
+    <t>/play/growth/config</t>
   </si>
   <si>
     <t>测试版本</t>
@@ -1791,10 +1797,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="B100" sqref="B100:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -3701,6 +3707,23 @@
       </c>
       <c r="F99" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="4">
+        <v>90301</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3736,16 +3759,16 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3756,16 +3779,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
@@ -3790,42 +3813,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>230</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/Network/TableNetworkRequest.xlsx
+++ b/Client/Table/Network/TableNetworkRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="239">
   <si>
     <t>[2,2]</t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>/play/growth/config</t>
+  </si>
+  <si>
+    <t>登录领钱</t>
+  </si>
+  <si>
+    <t>/play/clockin/nconfig</t>
   </si>
   <si>
     <t>测试版本</t>
@@ -1797,10 +1803,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:F100"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -3724,6 +3730,23 @@
       </c>
       <c r="F100" s="15" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="4">
+        <v>90401</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3759,16 +3782,16 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3779,16 +3802,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
@@ -3813,42 +3836,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>232</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/Network/TableNetworkRequest.xlsx
+++ b/Client/Table/Network/TableNetworkRequest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="15480"/>
+    <workbookView windowWidth="19380" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="TableNetworkRequest" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="239">
   <si>
     <t>[2,2]</t>
   </si>
@@ -675,6 +675,18 @@
   </si>
   <si>
     <t>/play/app/pc</t>
+  </si>
+  <si>
+    <t>提现增幅配置</t>
+  </si>
+  <si>
+    <t>/play/growth/config</t>
+  </si>
+  <si>
+    <t>登录领钱</t>
+  </si>
+  <si>
+    <t>/play/clockin/nconfig</t>
   </si>
   <si>
     <t>测试版本</t>
@@ -732,7 +744,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +783,12 @@
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFED94C0"/>
+      <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1237,10 +1255,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,16 +1267,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1273,10 +1291,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,98 +1303,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1464,7 +1482,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1791,10 +1815,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -3397,7 +3421,7 @@
       <c r="E83" s="4">
         <v>2</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="29" t="s">
         <v>185</v>
       </c>
       <c r="G83" s="4">
@@ -3423,7 +3447,7 @@
       <c r="E84" s="4">
         <v>2</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="29" t="s">
         <v>188</v>
       </c>
       <c r="G84" s="4">
@@ -3449,7 +3473,7 @@
       <c r="E85" s="4">
         <v>2</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="29" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3466,7 +3490,7 @@
       <c r="E86" s="4">
         <v>2</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="29" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3483,7 +3507,7 @@
       <c r="E87" s="4">
         <v>2</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="29" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3699,9 +3723,46 @@
       <c r="E99" s="4">
         <v>2</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="29" t="s">
         <v>219</v>
       </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="4">
+        <v>90301</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="4">
+        <v>90401</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3736,16 +3797,16 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3756,16 +3817,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
@@ -3790,42 +3851,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/Network/TableNetworkRequest.xlsx
+++ b/Client/Table/Network/TableNetworkRequest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="TableNetworkRequest" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="238">
   <si>
     <t>[2,2]</t>
   </si>
@@ -137,7 +137,7 @@
     <t>/play/userstore/uplevel</t>
   </si>
   <si>
-    <t>关卡结算页，点击金币领取按键</t>
+    <t>通关页掉落</t>
   </si>
   <si>
     <t>升级多倍</t>
@@ -200,6 +200,9 @@
     <t>/play/task/accept</t>
   </si>
   <si>
+    <t>任务页掉落</t>
+  </si>
+  <si>
     <t>下载其他游戏任务完成</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
     <t>/play/freemoney/acceptfree</t>
   </si>
   <si>
-    <t>免费领钱功能，点击ICON</t>
-  </si>
-  <si>
     <t>免费小额领取</t>
   </si>
   <si>
@@ -269,9 +269,6 @@
     <t>/play/floatred/winfloatred</t>
   </si>
   <si>
-    <t>可领红包/漂浮宝箱，点击视频按键</t>
-  </si>
-  <si>
     <t>免费提示配置</t>
   </si>
   <si>
@@ -326,7 +323,7 @@
     <t>/play/withdraw/withdraw</t>
   </si>
   <si>
-    <t>普通提现页面，点击提现按键</t>
+    <t>登录提现页提现</t>
   </si>
   <si>
     <t>新手配置</t>
@@ -575,9 +572,6 @@
     <t>/play/massproduce/config</t>
   </si>
   <si>
-    <t>全民大生产功能，点击看视频按键</t>
-  </si>
-  <si>
     <t>提现接口</t>
   </si>
   <si>
@@ -659,6 +653,9 @@
     <t>/play/newvideored/win</t>
   </si>
   <si>
+    <t>新视频红包领取</t>
+  </si>
+  <si>
     <t>通用玩法配置</t>
   </si>
   <si>
@@ -681,6 +678,12 @@
   </si>
   <si>
     <t>/play/growth/config</t>
+  </si>
+  <si>
+    <t>登录领钱</t>
+  </si>
+  <si>
+    <t>/play/clockin/nconfig</t>
   </si>
   <si>
     <t>测试版本</t>
@@ -738,7 +741,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +780,12 @@
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFED94C0"/>
+      <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1243,10 +1252,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1255,16 +1264,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1279,10 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1294,98 +1300,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1470,7 +1479,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,10 +1812,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:F100"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2045,10 +2060,10 @@
         <v>39</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>2000004</v>
+        <v>2000010</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>40</v>
@@ -2215,7 +2230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:9">
       <c r="B21" s="20">
         <v>30035</v>
       </c>
@@ -2230,6 +2245,15 @@
       </c>
       <c r="F21" s="22" t="s">
         <v>60</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2000014</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -2237,7 +2261,7 @@
         <v>30036</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>23</v>
@@ -2246,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" s="13" customFormat="1" spans="1:9">
@@ -2255,7 +2279,7 @@
         <v>30040</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>23</v>
@@ -2264,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I23" s="24"/>
     </row>
@@ -2274,7 +2298,7 @@
         <v>30041</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>23</v>
@@ -2283,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" s="24"/>
     </row>
@@ -2293,7 +2317,7 @@
         <v>30050</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>23</v>
@@ -2302,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25" s="24"/>
     </row>
@@ -2312,7 +2336,7 @@
         <v>30060</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>23</v>
@@ -2321,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I26" s="24"/>
     </row>
@@ -2331,7 +2355,7 @@
         <v>30061</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>23</v>
@@ -2340,17 +2364,11 @@
         <v>2</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <v>2000006</v>
-      </c>
-      <c r="I27" s="24" t="s">
         <v>73</v>
       </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" s="13" customFormat="1" spans="1:9">
       <c r="A28" s="23"/>
@@ -2445,15 +2463,9 @@
       <c r="F32" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="13">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13">
-        <v>2000005</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" s="13" customFormat="1" spans="1:9">
       <c r="A33" s="23"/>
@@ -2461,16 +2473,16 @@
         <v>30090</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="13">
-        <v>2</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="I33" s="24"/>
     </row>
@@ -2480,16 +2492,16 @@
         <v>30091</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="13">
+        <v>2</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="13">
-        <v>2</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="I34" s="24"/>
     </row>
@@ -2499,16 +2511,16 @@
         <v>30100</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="13">
-        <v>2</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>90</v>
       </c>
       <c r="I35" s="24"/>
     </row>
@@ -2518,16 +2530,16 @@
         <v>30101</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="13">
-        <v>2</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="I36" s="24"/>
     </row>
@@ -2537,16 +2549,16 @@
         <v>30102</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="13">
-        <v>2</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="I37" s="24"/>
     </row>
@@ -2555,16 +2567,16 @@
         <v>30103</v>
       </c>
       <c r="C38" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="20">
+        <v>2</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="20">
-        <v>2</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -2572,16 +2584,16 @@
         <v>30104</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="20">
+        <v>2</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="20">
-        <v>2</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -2589,16 +2601,16 @@
         <v>30110</v>
       </c>
       <c r="C40" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="20">
+        <v>2</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="20">
-        <v>2</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2606,25 +2618,25 @@
         <v>30111</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="20">
+        <v>2</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="20">
-        <v>2</v>
-      </c>
-      <c r="F41" s="22" t="s">
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2000011</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>2000001</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:9">
@@ -2633,16 +2645,16 @@
         <v>30120</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="13">
+        <v>2</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="13">
-        <v>2</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="I42" s="24"/>
     </row>
@@ -2652,16 +2664,16 @@
         <v>30121</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2</v>
+      </c>
+      <c r="F43" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="13">
-        <v>2</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="I43" s="24"/>
     </row>
@@ -2670,16 +2682,16 @@
         <v>30130</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="20">
+        <v>2</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="20">
-        <v>2</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -2687,16 +2699,16 @@
         <v>30140</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="20">
+        <v>2</v>
+      </c>
+      <c r="F45" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="20">
-        <v>2</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -2704,16 +2716,16 @@
         <v>30141</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="20">
+        <v>2</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="20">
-        <v>2</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" s="13" customFormat="1" spans="1:9">
@@ -2722,16 +2734,16 @@
         <v>40100</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="13">
-        <v>2</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="I47" s="24"/>
     </row>
@@ -2741,16 +2753,16 @@
         <v>40101</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="13">
-        <v>2</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="I48" s="24"/>
     </row>
@@ -2760,16 +2772,16 @@
         <v>40102</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2</v>
+      </c>
+      <c r="F49" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="13">
-        <v>2</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>119</v>
       </c>
       <c r="I49" s="24"/>
     </row>
@@ -2779,16 +2791,16 @@
         <v>40110</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="I50" s="27"/>
     </row>
@@ -2798,16 +2810,16 @@
         <v>40111</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="I51" s="27"/>
     </row>
@@ -2817,16 +2829,16 @@
         <v>40112</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="I52" s="27"/>
     </row>
@@ -2836,16 +2848,16 @@
         <v>40113</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="I53" s="27"/>
     </row>
@@ -2855,16 +2867,16 @@
         <v>40200</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="13">
+        <v>2</v>
+      </c>
+      <c r="F54" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="13">
-        <v>2</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="I54" s="24"/>
     </row>
@@ -2874,16 +2886,16 @@
         <v>40201</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="13">
+        <v>2</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="13">
-        <v>2</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>131</v>
       </c>
       <c r="I55" s="24"/>
     </row>
@@ -2893,16 +2905,16 @@
         <v>50100</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="13">
+        <v>2</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="13">
-        <v>2</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="I56" s="24"/>
     </row>
@@ -2912,16 +2924,16 @@
         <v>50101</v>
       </c>
       <c r="C57" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="13">
-        <v>2</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="I57" s="24"/>
     </row>
@@ -2931,16 +2943,16 @@
         <v>50102</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="13">
+        <v>2</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="13">
-        <v>2</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="I58" s="24"/>
     </row>
@@ -2950,16 +2962,16 @@
         <v>60100</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="13">
+        <v>2</v>
+      </c>
+      <c r="F59" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="13">
-        <v>2</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="I59" s="24"/>
     </row>
@@ -2969,16 +2981,16 @@
         <v>60101</v>
       </c>
       <c r="C60" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="13">
+        <v>2</v>
+      </c>
+      <c r="F60" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="13">
-        <v>2</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="I60" s="24"/>
     </row>
@@ -2988,16 +3000,16 @@
         <v>60102</v>
       </c>
       <c r="C61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="13">
+        <v>2</v>
+      </c>
+      <c r="F61" s="24" t="s">
         <v>142</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="13">
-        <v>2</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>143</v>
       </c>
       <c r="I61" s="24"/>
     </row>
@@ -3007,7 +3019,7 @@
         <v>60103</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>23</v>
@@ -3016,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I62" s="24"/>
     </row>
@@ -3025,16 +3037,16 @@
         <v>70001</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="4">
+        <v>2</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -3042,16 +3054,16 @@
         <v>70100</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="4">
-        <v>2</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -3059,16 +3071,16 @@
         <v>70101</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="F65" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="4">
-        <v>2</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="66" s="13" customFormat="1" spans="1:9">
@@ -3077,16 +3089,16 @@
         <v>70201</v>
       </c>
       <c r="C66" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="13">
-        <v>2</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="I66" s="24"/>
     </row>
@@ -3095,16 +3107,16 @@
         <v>80100</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+      <c r="F67" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="4">
-        <v>2</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -3112,16 +3124,16 @@
         <v>80101</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2</v>
+      </c>
+      <c r="F68" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="69" s="13" customFormat="1" spans="1:9">
@@ -3130,16 +3142,16 @@
         <v>80102</v>
       </c>
       <c r="C69" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="13">
+        <v>2</v>
+      </c>
+      <c r="F69" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="13">
-        <v>2</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>158</v>
       </c>
       <c r="I69" s="24"/>
     </row>
@@ -3149,16 +3161,16 @@
         <v>80103</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="13">
+        <v>2</v>
+      </c>
+      <c r="F70" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="13">
-        <v>2</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>160</v>
       </c>
       <c r="I70" s="24"/>
     </row>
@@ -3168,7 +3180,7 @@
         <v>80104</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>23</v>
@@ -3177,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I71" s="24"/>
     </row>
@@ -3187,16 +3199,16 @@
         <v>80105</v>
       </c>
       <c r="C72" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="13">
+        <v>2</v>
+      </c>
+      <c r="F72" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="13">
-        <v>2</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="I72" s="24"/>
     </row>
@@ -3206,16 +3218,16 @@
         <v>80106</v>
       </c>
       <c r="C73" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="13">
+        <v>2</v>
+      </c>
+      <c r="F73" s="28" t="s">
         <v>164</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="13">
-        <v>2</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>165</v>
       </c>
       <c r="I73" s="24"/>
     </row>
@@ -3225,16 +3237,16 @@
         <v>80107</v>
       </c>
       <c r="C74" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="13">
+        <v>2</v>
+      </c>
+      <c r="F74" s="28" t="s">
         <v>166</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="13">
-        <v>2</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>167</v>
       </c>
       <c r="I74" s="24"/>
     </row>
@@ -3244,16 +3256,16 @@
         <v>80108</v>
       </c>
       <c r="C75" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="13">
+        <v>2</v>
+      </c>
+      <c r="F75" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="13">
-        <v>2</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>169</v>
       </c>
       <c r="I75" s="24"/>
     </row>
@@ -3263,16 +3275,16 @@
         <v>80201</v>
       </c>
       <c r="C76" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="13">
+        <v>2</v>
+      </c>
+      <c r="F76" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="13">
-        <v>2</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="I76" s="24"/>
     </row>
@@ -3282,16 +3294,16 @@
         <v>80202</v>
       </c>
       <c r="C77" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="13">
+        <v>2</v>
+      </c>
+      <c r="F77" s="28" t="s">
         <v>172</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="13">
-        <v>2</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>173</v>
       </c>
       <c r="I77" s="24"/>
     </row>
@@ -3301,16 +3313,16 @@
         <v>80301</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="13">
+        <v>2</v>
+      </c>
+      <c r="F78" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="13">
-        <v>2</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="I78" s="24"/>
     </row>
@@ -3320,16 +3332,16 @@
         <v>80302</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="13">
+        <v>2</v>
+      </c>
+      <c r="F79" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="13">
-        <v>2</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>177</v>
       </c>
       <c r="I79" s="24"/>
     </row>
@@ -3339,16 +3351,16 @@
         <v>80303</v>
       </c>
       <c r="C80" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="13">
+        <v>2</v>
+      </c>
+      <c r="F80" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="13">
-        <v>2</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>179</v>
       </c>
       <c r="I80" s="24"/>
     </row>
@@ -3358,16 +3370,16 @@
         <v>80401</v>
       </c>
       <c r="C81" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="13">
+        <v>2</v>
+      </c>
+      <c r="F81" s="24" t="s">
         <v>180</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="13">
-        <v>2</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>181</v>
       </c>
       <c r="I81" s="24"/>
     </row>
@@ -3377,43 +3389,34 @@
         <v>80402</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="13">
+        <v>2</v>
+      </c>
+      <c r="F82" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="13">
-        <v>2</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>183</v>
-      </c>
       <c r="I82" s="24"/>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:6">
       <c r="B83" s="4">
         <v>80501</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2</v>
+      </c>
+      <c r="F83" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="4">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s">
-        <v>185</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0</v>
-      </c>
-      <c r="H83" s="4">
-        <v>2000003</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -3421,7 +3424,7 @@
         <v>80502</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>23</v>
@@ -3429,17 +3432,17 @@
       <c r="E84" s="4">
         <v>2</v>
       </c>
-      <c r="F84" t="s">
-        <v>188</v>
+      <c r="F84" s="29" t="s">
+        <v>186</v>
       </c>
       <c r="G84" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="4">
         <v>2000002</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -3447,7 +3450,7 @@
         <v>80503</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>23</v>
@@ -3455,8 +3458,8 @@
       <c r="E85" s="4">
         <v>2</v>
       </c>
-      <c r="F85" t="s">
-        <v>191</v>
+      <c r="F85" s="29" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="2:6">
@@ -3464,7 +3467,7 @@
         <v>80504</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>23</v>
@@ -3472,8 +3475,8 @@
       <c r="E86" s="4">
         <v>2</v>
       </c>
-      <c r="F86" t="s">
-        <v>193</v>
+      <c r="F86" s="29" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -3481,7 +3484,7 @@
         <v>80505</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>23</v>
@@ -3489,8 +3492,8 @@
       <c r="E87" s="4">
         <v>2</v>
       </c>
-      <c r="F87" t="s">
-        <v>195</v>
+      <c r="F87" s="29" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="2:6">
@@ -3498,7 +3501,7 @@
         <v>80506</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>23</v>
@@ -3507,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" s="13" customFormat="1" spans="1:9">
@@ -3516,7 +3519,7 @@
         <v>80601</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>23</v>
@@ -3525,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I89" s="24"/>
     </row>
@@ -3535,7 +3538,7 @@
         <v>80602</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>23</v>
@@ -3544,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I90" s="24"/>
     </row>
@@ -3554,7 +3557,7 @@
         <v>80603</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>23</v>
@@ -3563,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I91" s="24"/>
     </row>
@@ -3573,7 +3576,7 @@
         <v>80604</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>23</v>
@@ -3582,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I92" s="24"/>
     </row>
@@ -3592,7 +3595,7 @@
         <v>80605</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>23</v>
@@ -3601,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I93" s="24"/>
     </row>
@@ -3611,7 +3614,7 @@
         <v>80606</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>23</v>
@@ -3620,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I94" s="24"/>
     </row>
@@ -3629,7 +3632,7 @@
         <v>80701</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>23</v>
@@ -3638,24 +3641,33 @@
         <v>2</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" s="4">
         <v>80702</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2000018</v>
+      </c>
+      <c r="I96" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="4">
-        <v>2</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -3663,33 +3675,42 @@
         <v>90001</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2</v>
+      </c>
+      <c r="F97" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="4">
-        <v>2</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" s="4">
         <v>90002</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="4">
+        <v>2</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="4">
-        <v>2</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>217</v>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>2000015</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -3697,16 +3718,16 @@
         <v>90101</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2</v>
+      </c>
+      <c r="F99" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="4">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="100" spans="2:6">
@@ -3714,17 +3735,37 @@
         <v>90301</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="4">
-        <v>2</v>
-      </c>
-      <c r="F100" t="s">
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="4">
+        <v>90401</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="D101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3759,16 +3800,16 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3779,16 +3820,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
@@ -3813,42 +3854,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/Network/TableNetworkRequest.xlsx
+++ b/Client/Table/Network/TableNetworkRequest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="TableNetworkRequest" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="238">
   <si>
     <t>[2,2]</t>
   </si>
@@ -137,7 +137,7 @@
     <t>/play/userstore/uplevel</t>
   </si>
   <si>
-    <t>关卡结算页，点击金币领取按键</t>
+    <t>通关页掉落</t>
   </si>
   <si>
     <t>升级多倍</t>
@@ -200,6 +200,9 @@
     <t>/play/task/accept</t>
   </si>
   <si>
+    <t>任务页掉落</t>
+  </si>
+  <si>
     <t>下载其他游戏任务完成</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
     <t>/play/freemoney/acceptfree</t>
   </si>
   <si>
-    <t>免费领钱功能，点击ICON</t>
-  </si>
-  <si>
     <t>免费小额领取</t>
   </si>
   <si>
@@ -269,9 +269,6 @@
     <t>/play/floatred/winfloatred</t>
   </si>
   <si>
-    <t>可领红包/漂浮宝箱，点击视频按键</t>
-  </si>
-  <si>
     <t>免费提示配置</t>
   </si>
   <si>
@@ -326,7 +323,7 @@
     <t>/play/withdraw/withdraw</t>
   </si>
   <si>
-    <t>普通提现页面，点击提现按键</t>
+    <t>登录提现页提现</t>
   </si>
   <si>
     <t>新手配置</t>
@@ -575,9 +572,6 @@
     <t>/play/massproduce/config</t>
   </si>
   <si>
-    <t>全民大生产功能，点击看视频按键</t>
-  </si>
-  <si>
     <t>提现接口</t>
   </si>
   <si>
@@ -659,6 +653,9 @@
     <t>/play/newvideored/win</t>
   </si>
   <si>
+    <t>新视频红包领取</t>
+  </si>
+  <si>
     <t>通用玩法配置</t>
   </si>
   <si>
@@ -681,6 +678,12 @@
   </si>
   <si>
     <t>/play/growth/config</t>
+  </si>
+  <si>
+    <t>登录领钱</t>
+  </si>
+  <si>
+    <t>/play/clockin/nconfig</t>
   </si>
   <si>
     <t>测试版本</t>
@@ -738,7 +741,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +780,12 @@
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFED94C0"/>
+      <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1243,10 +1252,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1255,16 +1264,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1279,10 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1294,98 +1300,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1470,7 +1479,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,10 +1812,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:F100"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2045,10 +2060,10 @@
         <v>39</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>2000004</v>
+        <v>2000010</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>40</v>
@@ -2215,7 +2230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:9">
       <c r="B21" s="20">
         <v>30035</v>
       </c>
@@ -2230,6 +2245,15 @@
       </c>
       <c r="F21" s="22" t="s">
         <v>60</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2000014</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -2237,7 +2261,7 @@
         <v>30036</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>23</v>
@@ -2246,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" s="13" customFormat="1" spans="1:9">
@@ -2255,7 +2279,7 @@
         <v>30040</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>23</v>
@@ -2264,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I23" s="24"/>
     </row>
@@ -2274,7 +2298,7 @@
         <v>30041</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>23</v>
@@ -2283,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" s="24"/>
     </row>
@@ -2293,7 +2317,7 @@
         <v>30050</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>23</v>
@@ -2302,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25" s="24"/>
     </row>
@@ -2312,7 +2336,7 @@
         <v>30060</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>23</v>
@@ -2321,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I26" s="24"/>
     </row>
@@ -2331,7 +2355,7 @@
         <v>30061</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>23</v>
@@ -2340,17 +2364,11 @@
         <v>2</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <v>2000006</v>
-      </c>
-      <c r="I27" s="24" t="s">
         <v>73</v>
       </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" s="13" customFormat="1" spans="1:9">
       <c r="A28" s="23"/>
@@ -2445,15 +2463,9 @@
       <c r="F32" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="13">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13">
-        <v>2000005</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" s="13" customFormat="1" spans="1:9">
       <c r="A33" s="23"/>
@@ -2461,16 +2473,16 @@
         <v>30090</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="13">
-        <v>2</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="I33" s="24"/>
     </row>
@@ -2480,16 +2492,16 @@
         <v>30091</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="13">
+        <v>2</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="13">
-        <v>2</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="I34" s="24"/>
     </row>
@@ -2499,16 +2511,16 @@
         <v>30100</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="13">
-        <v>2</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>90</v>
       </c>
       <c r="I35" s="24"/>
     </row>
@@ -2518,16 +2530,16 @@
         <v>30101</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="13">
-        <v>2</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="I36" s="24"/>
     </row>
@@ -2537,16 +2549,16 @@
         <v>30102</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="13">
-        <v>2</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="I37" s="24"/>
     </row>
@@ -2555,16 +2567,16 @@
         <v>30103</v>
       </c>
       <c r="C38" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="20">
+        <v>2</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="20">
-        <v>2</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -2572,16 +2584,16 @@
         <v>30104</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="20">
+        <v>2</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="20">
-        <v>2</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -2589,16 +2601,16 @@
         <v>30110</v>
       </c>
       <c r="C40" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="20">
+        <v>2</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="20">
-        <v>2</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2606,25 +2618,25 @@
         <v>30111</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="20">
+        <v>2</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="20">
-        <v>2</v>
-      </c>
-      <c r="F41" s="22" t="s">
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2000011</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>2000001</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:9">
@@ -2633,16 +2645,16 @@
         <v>30120</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="13">
+        <v>2</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="13">
-        <v>2</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="I42" s="24"/>
     </row>
@@ -2652,16 +2664,16 @@
         <v>30121</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2</v>
+      </c>
+      <c r="F43" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="13">
-        <v>2</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="I43" s="24"/>
     </row>
@@ -2670,16 +2682,16 @@
         <v>30130</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="20">
+        <v>2</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="20">
-        <v>2</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -2687,16 +2699,16 @@
         <v>30140</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="20">
+        <v>2</v>
+      </c>
+      <c r="F45" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="20">
-        <v>2</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -2704,16 +2716,16 @@
         <v>30141</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="20">
+        <v>2</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="20">
-        <v>2</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" s="13" customFormat="1" spans="1:9">
@@ -2722,16 +2734,16 @@
         <v>40100</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="13">
-        <v>2</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="I47" s="24"/>
     </row>
@@ -2741,16 +2753,16 @@
         <v>40101</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="13">
-        <v>2</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="I48" s="24"/>
     </row>
@@ -2760,16 +2772,16 @@
         <v>40102</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2</v>
+      </c>
+      <c r="F49" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="13">
-        <v>2</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>119</v>
       </c>
       <c r="I49" s="24"/>
     </row>
@@ -2779,16 +2791,16 @@
         <v>40110</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="I50" s="27"/>
     </row>
@@ -2798,16 +2810,16 @@
         <v>40111</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="I51" s="27"/>
     </row>
@@ -2817,16 +2829,16 @@
         <v>40112</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="I52" s="27"/>
     </row>
@@ -2836,16 +2848,16 @@
         <v>40113</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="I53" s="27"/>
     </row>
@@ -2855,16 +2867,16 @@
         <v>40200</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="13">
+        <v>2</v>
+      </c>
+      <c r="F54" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="13">
-        <v>2</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="I54" s="24"/>
     </row>
@@ -2874,16 +2886,16 @@
         <v>40201</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="13">
+        <v>2</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="13">
-        <v>2</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>131</v>
       </c>
       <c r="I55" s="24"/>
     </row>
@@ -2893,16 +2905,16 @@
         <v>50100</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="13">
+        <v>2</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="13">
-        <v>2</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="I56" s="24"/>
     </row>
@@ -2912,16 +2924,16 @@
         <v>50101</v>
       </c>
       <c r="C57" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="13">
-        <v>2</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="I57" s="24"/>
     </row>
@@ -2931,16 +2943,16 @@
         <v>50102</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="13">
+        <v>2</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="13">
-        <v>2</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="I58" s="24"/>
     </row>
@@ -2950,16 +2962,16 @@
         <v>60100</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="13">
+        <v>2</v>
+      </c>
+      <c r="F59" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="13">
-        <v>2</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="I59" s="24"/>
     </row>
@@ -2969,16 +2981,16 @@
         <v>60101</v>
       </c>
       <c r="C60" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="13">
+        <v>2</v>
+      </c>
+      <c r="F60" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="13">
-        <v>2</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="I60" s="24"/>
     </row>
@@ -2988,16 +3000,16 @@
         <v>60102</v>
       </c>
       <c r="C61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="13">
+        <v>2</v>
+      </c>
+      <c r="F61" s="24" t="s">
         <v>142</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="13">
-        <v>2</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>143</v>
       </c>
       <c r="I61" s="24"/>
     </row>
@@ -3007,7 +3019,7 @@
         <v>60103</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>23</v>
@@ -3016,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I62" s="24"/>
     </row>
@@ -3025,16 +3037,16 @@
         <v>70001</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="4">
+        <v>2</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -3042,16 +3054,16 @@
         <v>70100</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="4">
-        <v>2</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -3059,16 +3071,16 @@
         <v>70101</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="F65" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="4">
-        <v>2</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="66" s="13" customFormat="1" spans="1:9">
@@ -3077,16 +3089,16 @@
         <v>70201</v>
       </c>
       <c r="C66" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="13">
-        <v>2</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="I66" s="24"/>
     </row>
@@ -3095,16 +3107,16 @@
         <v>80100</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+      <c r="F67" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="4">
-        <v>2</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -3112,16 +3124,16 @@
         <v>80101</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2</v>
+      </c>
+      <c r="F68" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="69" s="13" customFormat="1" spans="1:9">
@@ -3130,16 +3142,16 @@
         <v>80102</v>
       </c>
       <c r="C69" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="13">
+        <v>2</v>
+      </c>
+      <c r="F69" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="13">
-        <v>2</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>158</v>
       </c>
       <c r="I69" s="24"/>
     </row>
@@ -3149,16 +3161,16 @@
         <v>80103</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="13">
+        <v>2</v>
+      </c>
+      <c r="F70" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="13">
-        <v>2</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>160</v>
       </c>
       <c r="I70" s="24"/>
     </row>
@@ -3168,7 +3180,7 @@
         <v>80104</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>23</v>
@@ -3177,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I71" s="24"/>
     </row>
@@ -3187,16 +3199,16 @@
         <v>80105</v>
       </c>
       <c r="C72" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="13">
+        <v>2</v>
+      </c>
+      <c r="F72" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="13">
-        <v>2</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="I72" s="24"/>
     </row>
@@ -3206,16 +3218,16 @@
         <v>80106</v>
       </c>
       <c r="C73" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="13">
+        <v>2</v>
+      </c>
+      <c r="F73" s="28" t="s">
         <v>164</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="13">
-        <v>2</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>165</v>
       </c>
       <c r="I73" s="24"/>
     </row>
@@ -3225,16 +3237,16 @@
         <v>80107</v>
       </c>
       <c r="C74" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="13">
+        <v>2</v>
+      </c>
+      <c r="F74" s="28" t="s">
         <v>166</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="13">
-        <v>2</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>167</v>
       </c>
       <c r="I74" s="24"/>
     </row>
@@ -3244,16 +3256,16 @@
         <v>80108</v>
       </c>
       <c r="C75" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="13">
+        <v>2</v>
+      </c>
+      <c r="F75" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="13">
-        <v>2</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>169</v>
       </c>
       <c r="I75" s="24"/>
     </row>
@@ -3263,16 +3275,16 @@
         <v>80201</v>
       </c>
       <c r="C76" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="13">
+        <v>2</v>
+      </c>
+      <c r="F76" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="13">
-        <v>2</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="I76" s="24"/>
     </row>
@@ -3282,16 +3294,16 @@
         <v>80202</v>
       </c>
       <c r="C77" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="13">
+        <v>2</v>
+      </c>
+      <c r="F77" s="28" t="s">
         <v>172</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="13">
-        <v>2</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>173</v>
       </c>
       <c r="I77" s="24"/>
     </row>
@@ -3301,16 +3313,16 @@
         <v>80301</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="13">
+        <v>2</v>
+      </c>
+      <c r="F78" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="13">
-        <v>2</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="I78" s="24"/>
     </row>
@@ -3320,16 +3332,16 @@
         <v>80302</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="13">
+        <v>2</v>
+      </c>
+      <c r="F79" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="13">
-        <v>2</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>177</v>
       </c>
       <c r="I79" s="24"/>
     </row>
@@ -3339,16 +3351,16 @@
         <v>80303</v>
       </c>
       <c r="C80" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="13">
+        <v>2</v>
+      </c>
+      <c r="F80" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="13">
-        <v>2</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>179</v>
       </c>
       <c r="I80" s="24"/>
     </row>
@@ -3358,16 +3370,16 @@
         <v>80401</v>
       </c>
       <c r="C81" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="13">
+        <v>2</v>
+      </c>
+      <c r="F81" s="24" t="s">
         <v>180</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="13">
-        <v>2</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>181</v>
       </c>
       <c r="I81" s="24"/>
     </row>
@@ -3377,43 +3389,34 @@
         <v>80402</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="13">
+        <v>2</v>
+      </c>
+      <c r="F82" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="13">
-        <v>2</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>183</v>
-      </c>
       <c r="I82" s="24"/>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:6">
       <c r="B83" s="4">
         <v>80501</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2</v>
+      </c>
+      <c r="F83" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="4">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s">
-        <v>185</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0</v>
-      </c>
-      <c r="H83" s="4">
-        <v>2000003</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -3421,7 +3424,7 @@
         <v>80502</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>23</v>
@@ -3429,17 +3432,17 @@
       <c r="E84" s="4">
         <v>2</v>
       </c>
-      <c r="F84" t="s">
-        <v>188</v>
+      <c r="F84" s="29" t="s">
+        <v>186</v>
       </c>
       <c r="G84" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="4">
         <v>2000002</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -3447,7 +3450,7 @@
         <v>80503</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>23</v>
@@ -3455,8 +3458,8 @@
       <c r="E85" s="4">
         <v>2</v>
       </c>
-      <c r="F85" t="s">
-        <v>191</v>
+      <c r="F85" s="29" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="2:6">
@@ -3464,7 +3467,7 @@
         <v>80504</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>23</v>
@@ -3472,8 +3475,8 @@
       <c r="E86" s="4">
         <v>2</v>
       </c>
-      <c r="F86" t="s">
-        <v>193</v>
+      <c r="F86" s="29" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -3481,7 +3484,7 @@
         <v>80505</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>23</v>
@@ -3489,8 +3492,8 @@
       <c r="E87" s="4">
         <v>2</v>
       </c>
-      <c r="F87" t="s">
-        <v>195</v>
+      <c r="F87" s="29" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="2:6">
@@ -3498,7 +3501,7 @@
         <v>80506</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>23</v>
@@ -3507,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" s="13" customFormat="1" spans="1:9">
@@ -3516,7 +3519,7 @@
         <v>80601</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>23</v>
@@ -3525,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I89" s="24"/>
     </row>
@@ -3535,7 +3538,7 @@
         <v>80602</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>23</v>
@@ -3544,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I90" s="24"/>
     </row>
@@ -3554,7 +3557,7 @@
         <v>80603</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>23</v>
@@ -3563,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I91" s="24"/>
     </row>
@@ -3573,7 +3576,7 @@
         <v>80604</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>23</v>
@@ -3582,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I92" s="24"/>
     </row>
@@ -3592,7 +3595,7 @@
         <v>80605</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>23</v>
@@ -3601,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I93" s="24"/>
     </row>
@@ -3611,7 +3614,7 @@
         <v>80606</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>23</v>
@@ -3620,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I94" s="24"/>
     </row>
@@ -3629,7 +3632,7 @@
         <v>80701</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>23</v>
@@ -3638,24 +3641,33 @@
         <v>2</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" s="4">
         <v>80702</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2000018</v>
+      </c>
+      <c r="I96" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="4">
-        <v>2</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -3663,33 +3675,42 @@
         <v>90001</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2</v>
+      </c>
+      <c r="F97" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="4">
-        <v>2</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" s="4">
         <v>90002</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="4">
+        <v>2</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="4">
-        <v>2</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>217</v>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>2000015</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -3697,16 +3718,16 @@
         <v>90101</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2</v>
+      </c>
+      <c r="F99" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="4">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="100" spans="2:6">
@@ -3714,17 +3735,37 @@
         <v>90301</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="4">
-        <v>2</v>
-      </c>
-      <c r="F100" s="15" t="s">
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="4">
+        <v>90401</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="D101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3759,16 +3800,16 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3779,16 +3820,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
@@ -3813,42 +3854,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/Network/TableNetworkRequest.xlsx
+++ b/Client/Table/Network/TableNetworkRequest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="12705"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="TableNetworkRequest" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="238">
   <si>
     <t>[2,2]</t>
   </si>
@@ -137,7 +137,7 @@
     <t>/play/userstore/uplevel</t>
   </si>
   <si>
-    <t>关卡结算页，点击金币领取按键</t>
+    <t>通关页掉落</t>
   </si>
   <si>
     <t>升级多倍</t>
@@ -200,6 +200,9 @@
     <t>/play/task/accept</t>
   </si>
   <si>
+    <t>任务页掉落</t>
+  </si>
+  <si>
     <t>下载其他游戏任务完成</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
     <t>/play/freemoney/acceptfree</t>
   </si>
   <si>
-    <t>免费领钱功能，点击ICON</t>
-  </si>
-  <si>
     <t>免费小额领取</t>
   </si>
   <si>
@@ -269,9 +269,6 @@
     <t>/play/floatred/winfloatred</t>
   </si>
   <si>
-    <t>可领红包/漂浮宝箱，点击视频按键</t>
-  </si>
-  <si>
     <t>免费提示配置</t>
   </si>
   <si>
@@ -326,7 +323,7 @@
     <t>/play/withdraw/withdraw</t>
   </si>
   <si>
-    <t>普通提现页面，点击提现按键</t>
+    <t>登录提现页提现</t>
   </si>
   <si>
     <t>新手配置</t>
@@ -575,9 +572,6 @@
     <t>/play/massproduce/config</t>
   </si>
   <si>
-    <t>全民大生产功能，点击看视频按键</t>
-  </si>
-  <si>
     <t>提现接口</t>
   </si>
   <si>
@@ -657,6 +651,9 @@
   </si>
   <si>
     <t>/play/newvideored/win</t>
+  </si>
+  <si>
+    <t>新视频红包领取</t>
   </si>
   <si>
     <t>通用玩法配置</t>
@@ -1817,8 +1814,8 @@
   <sheetPr/>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2063,10 +2060,10 @@
         <v>39</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>2000004</v>
+        <v>2000010</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>40</v>
@@ -2233,7 +2230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:9">
       <c r="B21" s="20">
         <v>30035</v>
       </c>
@@ -2248,6 +2245,15 @@
       </c>
       <c r="F21" s="22" t="s">
         <v>60</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2000014</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -2255,7 +2261,7 @@
         <v>30036</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>23</v>
@@ -2264,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" s="13" customFormat="1" spans="1:9">
@@ -2273,7 +2279,7 @@
         <v>30040</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>23</v>
@@ -2282,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I23" s="24"/>
     </row>
@@ -2292,7 +2298,7 @@
         <v>30041</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>23</v>
@@ -2301,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" s="24"/>
     </row>
@@ -2311,7 +2317,7 @@
         <v>30050</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>23</v>
@@ -2320,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25" s="24"/>
     </row>
@@ -2330,7 +2336,7 @@
         <v>30060</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>23</v>
@@ -2339,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I26" s="24"/>
     </row>
@@ -2349,7 +2355,7 @@
         <v>30061</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>23</v>
@@ -2358,17 +2364,11 @@
         <v>2</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <v>2000006</v>
-      </c>
-      <c r="I27" s="24" t="s">
         <v>73</v>
       </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" s="13" customFormat="1" spans="1:9">
       <c r="A28" s="23"/>
@@ -2463,15 +2463,9 @@
       <c r="F32" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="13">
-        <v>0</v>
-      </c>
-      <c r="H32" s="13">
-        <v>2000005</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" s="13" customFormat="1" spans="1:9">
       <c r="A33" s="23"/>
@@ -2479,16 +2473,16 @@
         <v>30090</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="13">
-        <v>2</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="I33" s="24"/>
     </row>
@@ -2498,16 +2492,16 @@
         <v>30091</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="13">
+        <v>2</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="13">
-        <v>2</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="I34" s="24"/>
     </row>
@@ -2517,16 +2511,16 @@
         <v>30100</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="13">
-        <v>2</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>90</v>
       </c>
       <c r="I35" s="24"/>
     </row>
@@ -2536,16 +2530,16 @@
         <v>30101</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="13">
-        <v>2</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="I36" s="24"/>
     </row>
@@ -2555,16 +2549,16 @@
         <v>30102</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="13">
-        <v>2</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="I37" s="24"/>
     </row>
@@ -2573,16 +2567,16 @@
         <v>30103</v>
       </c>
       <c r="C38" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="20">
+        <v>2</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="20">
-        <v>2</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -2590,16 +2584,16 @@
         <v>30104</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="20">
+        <v>2</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="20">
-        <v>2</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -2607,16 +2601,16 @@
         <v>30110</v>
       </c>
       <c r="C40" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="20">
+        <v>2</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="20">
-        <v>2</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2624,25 +2618,25 @@
         <v>30111</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="20">
+        <v>2</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="20">
-        <v>2</v>
-      </c>
-      <c r="F41" s="22" t="s">
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2000011</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>2000001</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:9">
@@ -2651,16 +2645,16 @@
         <v>30120</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="13">
+        <v>2</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="13">
-        <v>2</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="I42" s="24"/>
     </row>
@@ -2670,16 +2664,16 @@
         <v>30121</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2</v>
+      </c>
+      <c r="F43" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="13">
-        <v>2</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="I43" s="24"/>
     </row>
@@ -2688,16 +2682,16 @@
         <v>30130</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="20">
+        <v>2</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="20">
-        <v>2</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -2705,16 +2699,16 @@
         <v>30140</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="20">
+        <v>2</v>
+      </c>
+      <c r="F45" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="20">
-        <v>2</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -2722,16 +2716,16 @@
         <v>30141</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="20">
+        <v>2</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="20">
-        <v>2</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" s="13" customFormat="1" spans="1:9">
@@ -2740,16 +2734,16 @@
         <v>40100</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="13">
-        <v>2</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="I47" s="24"/>
     </row>
@@ -2759,16 +2753,16 @@
         <v>40101</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="13">
+        <v>2</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="13">
-        <v>2</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="I48" s="24"/>
     </row>
@@ -2778,16 +2772,16 @@
         <v>40102</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="13">
+        <v>2</v>
+      </c>
+      <c r="F49" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="13">
-        <v>2</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>119</v>
       </c>
       <c r="I49" s="24"/>
     </row>
@@ -2797,16 +2791,16 @@
         <v>40110</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="I50" s="27"/>
     </row>
@@ -2816,16 +2810,16 @@
         <v>40111</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="I51" s="27"/>
     </row>
@@ -2835,16 +2829,16 @@
         <v>40112</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="I52" s="27"/>
     </row>
@@ -2854,16 +2848,16 @@
         <v>40113</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="I53" s="27"/>
     </row>
@@ -2873,16 +2867,16 @@
         <v>40200</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="13">
+        <v>2</v>
+      </c>
+      <c r="F54" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="13">
-        <v>2</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="I54" s="24"/>
     </row>
@@ -2892,16 +2886,16 @@
         <v>40201</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="13">
+        <v>2</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="13">
-        <v>2</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>131</v>
       </c>
       <c r="I55" s="24"/>
     </row>
@@ -2911,16 +2905,16 @@
         <v>50100</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="13">
+        <v>2</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="13">
-        <v>2</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="I56" s="24"/>
     </row>
@@ -2930,16 +2924,16 @@
         <v>50101</v>
       </c>
       <c r="C57" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="13">
-        <v>2</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="I57" s="24"/>
     </row>
@@ -2949,16 +2943,16 @@
         <v>50102</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="13">
+        <v>2</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="13">
-        <v>2</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="I58" s="24"/>
     </row>
@@ -2968,16 +2962,16 @@
         <v>60100</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="13">
+        <v>2</v>
+      </c>
+      <c r="F59" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="13">
-        <v>2</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="I59" s="24"/>
     </row>
@@ -2987,16 +2981,16 @@
         <v>60101</v>
       </c>
       <c r="C60" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="13">
+        <v>2</v>
+      </c>
+      <c r="F60" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="13">
-        <v>2</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="I60" s="24"/>
     </row>
@@ -3006,16 +3000,16 @@
         <v>60102</v>
       </c>
       <c r="C61" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="13">
+        <v>2</v>
+      </c>
+      <c r="F61" s="24" t="s">
         <v>142</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="13">
-        <v>2</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>143</v>
       </c>
       <c r="I61" s="24"/>
     </row>
@@ -3025,7 +3019,7 @@
         <v>60103</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>23</v>
@@ -3034,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I62" s="24"/>
     </row>
@@ -3043,16 +3037,16 @@
         <v>70001</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="4">
+        <v>2</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -3060,16 +3054,16 @@
         <v>70100</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="4">
-        <v>2</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="65" spans="2:6">
@@ -3077,16 +3071,16 @@
         <v>70101</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="F65" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="4">
-        <v>2</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="66" s="13" customFormat="1" spans="1:9">
@@ -3095,16 +3089,16 @@
         <v>70201</v>
       </c>
       <c r="C66" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="13">
-        <v>2</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="I66" s="24"/>
     </row>
@@ -3113,16 +3107,16 @@
         <v>80100</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+      <c r="F67" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="4">
-        <v>2</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -3130,16 +3124,16 @@
         <v>80101</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2</v>
+      </c>
+      <c r="F68" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="69" s="13" customFormat="1" spans="1:9">
@@ -3148,16 +3142,16 @@
         <v>80102</v>
       </c>
       <c r="C69" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="13">
+        <v>2</v>
+      </c>
+      <c r="F69" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="13">
-        <v>2</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>158</v>
       </c>
       <c r="I69" s="24"/>
     </row>
@@ -3167,16 +3161,16 @@
         <v>80103</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="13">
+        <v>2</v>
+      </c>
+      <c r="F70" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="13">
-        <v>2</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>160</v>
       </c>
       <c r="I70" s="24"/>
     </row>
@@ -3186,7 +3180,7 @@
         <v>80104</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>23</v>
@@ -3195,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I71" s="24"/>
     </row>
@@ -3205,16 +3199,16 @@
         <v>80105</v>
       </c>
       <c r="C72" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="13">
+        <v>2</v>
+      </c>
+      <c r="F72" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="13">
-        <v>2</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="I72" s="24"/>
     </row>
@@ -3224,16 +3218,16 @@
         <v>80106</v>
       </c>
       <c r="C73" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="13">
+        <v>2</v>
+      </c>
+      <c r="F73" s="28" t="s">
         <v>164</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="13">
-        <v>2</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>165</v>
       </c>
       <c r="I73" s="24"/>
     </row>
@@ -3243,16 +3237,16 @@
         <v>80107</v>
       </c>
       <c r="C74" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="13">
+        <v>2</v>
+      </c>
+      <c r="F74" s="28" t="s">
         <v>166</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="13">
-        <v>2</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>167</v>
       </c>
       <c r="I74" s="24"/>
     </row>
@@ -3262,16 +3256,16 @@
         <v>80108</v>
       </c>
       <c r="C75" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="13">
+        <v>2</v>
+      </c>
+      <c r="F75" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="13">
-        <v>2</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>169</v>
       </c>
       <c r="I75" s="24"/>
     </row>
@@ -3281,16 +3275,16 @@
         <v>80201</v>
       </c>
       <c r="C76" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="13">
+        <v>2</v>
+      </c>
+      <c r="F76" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="13">
-        <v>2</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="I76" s="24"/>
     </row>
@@ -3300,16 +3294,16 @@
         <v>80202</v>
       </c>
       <c r="C77" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="13">
+        <v>2</v>
+      </c>
+      <c r="F77" s="28" t="s">
         <v>172</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="13">
-        <v>2</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>173</v>
       </c>
       <c r="I77" s="24"/>
     </row>
@@ -3319,16 +3313,16 @@
         <v>80301</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="13">
+        <v>2</v>
+      </c>
+      <c r="F78" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="13">
-        <v>2</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="I78" s="24"/>
     </row>
@@ -3338,16 +3332,16 @@
         <v>80302</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="13">
+        <v>2</v>
+      </c>
+      <c r="F79" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="13">
-        <v>2</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>177</v>
       </c>
       <c r="I79" s="24"/>
     </row>
@@ -3357,16 +3351,16 @@
         <v>80303</v>
       </c>
       <c r="C80" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="13">
+        <v>2</v>
+      </c>
+      <c r="F80" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="13">
-        <v>2</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>179</v>
       </c>
       <c r="I80" s="24"/>
     </row>
@@ -3376,16 +3370,16 @@
         <v>80401</v>
       </c>
       <c r="C81" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="13">
+        <v>2</v>
+      </c>
+      <c r="F81" s="24" t="s">
         <v>180</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="13">
-        <v>2</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>181</v>
       </c>
       <c r="I81" s="24"/>
     </row>
@@ -3395,43 +3389,34 @@
         <v>80402</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="13">
+        <v>2</v>
+      </c>
+      <c r="F82" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="13">
-        <v>2</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>183</v>
-      </c>
       <c r="I82" s="24"/>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:6">
       <c r="B83" s="4">
         <v>80501</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2</v>
+      </c>
+      <c r="F83" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="4">
-        <v>2</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0</v>
-      </c>
-      <c r="H83" s="4">
-        <v>2000003</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="84" spans="2:9">
@@ -3439,7 +3424,7 @@
         <v>80502</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>23</v>
@@ -3448,16 +3433,16 @@
         <v>2</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G84" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="4">
         <v>2000002</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -3465,7 +3450,7 @@
         <v>80503</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>23</v>
@@ -3474,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="2:6">
@@ -3482,7 +3467,7 @@
         <v>80504</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>23</v>
@@ -3491,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -3499,7 +3484,7 @@
         <v>80505</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>23</v>
@@ -3508,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="2:6">
@@ -3516,7 +3501,7 @@
         <v>80506</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>23</v>
@@ -3525,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" s="13" customFormat="1" spans="1:9">
@@ -3534,7 +3519,7 @@
         <v>80601</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>23</v>
@@ -3543,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I89" s="24"/>
     </row>
@@ -3553,7 +3538,7 @@
         <v>80602</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>23</v>
@@ -3562,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I90" s="24"/>
     </row>
@@ -3572,7 +3557,7 @@
         <v>80603</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>23</v>
@@ -3581,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I91" s="24"/>
     </row>
@@ -3591,7 +3576,7 @@
         <v>80604</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>23</v>
@@ -3600,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I92" s="24"/>
     </row>
@@ -3610,7 +3595,7 @@
         <v>80605</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>23</v>
@@ -3619,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I93" s="24"/>
     </row>
@@ -3629,7 +3614,7 @@
         <v>80606</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>23</v>
@@ -3638,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I94" s="24"/>
     </row>
@@ -3647,7 +3632,7 @@
         <v>80701</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>23</v>
@@ -3656,24 +3641,33 @@
         <v>2</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" s="4">
         <v>80702</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2000018</v>
+      </c>
+      <c r="I96" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="4">
-        <v>2</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="97" spans="2:6">
@@ -3681,33 +3675,42 @@
         <v>90001</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2</v>
+      </c>
+      <c r="F97" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="4">
-        <v>2</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" s="4">
         <v>90002</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="4">
+        <v>2</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="4">
-        <v>2</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>217</v>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>2000015</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -3715,16 +3718,16 @@
         <v>90101</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2</v>
+      </c>
+      <c r="F99" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="4">
-        <v>2</v>
-      </c>
-      <c r="F99" s="29" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="100" spans="2:6">
@@ -3732,16 +3735,16 @@
         <v>90301</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" s="29" t="s">
         <v>220</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="4">
-        <v>2</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="101" spans="2:6">
@@ -3749,16 +3752,16 @@
         <v>90401</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2</v>
+      </c>
+      <c r="F101" s="29" t="s">
         <v>222</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="4">
-        <v>2</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="104" spans="2:2">
@@ -3797,16 +3800,16 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3817,16 +3820,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
@@ -3851,42 +3854,42 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>238</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
